--- a/biology/Histoire de la zoologie et de la botanique/Johann_Gottlieb_Schaller/Johann_Gottlieb_Schaller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Gottlieb_Schaller/Johann_Gottlieb_Schaller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Gottlieb Schaller, ou Johann Gottlob Schaller (1734-1814), est un zoologiste et entomologiste allemand qui s'est notamment spécialisé dans l'étude des coléoptères, en particulier des Curculionidae, ainsi que dans celle des lépidoptères, dont il décrit nombre d'espèces exotiques. Il a fondé en Saxe avec le botaniste Christian Carl Löwe, la Société des naturalistes de Halle en 1779[1]. À partir de 1783, il est conservateur au Kunst- und Naturalienkammer de Halle, fondé par August Hermann Francke au début du siècle. En 1787, il est engagé comme directeur comptable des jardins des Institutions de Francke de Halle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Gottlieb Schaller, ou Johann Gottlob Schaller (1734-1814), est un zoologiste et entomologiste allemand qui s'est notamment spécialisé dans l'étude des coléoptères, en particulier des Curculionidae, ainsi que dans celle des lépidoptères, dont il décrit nombre d'espèces exotiques. Il a fondé en Saxe avec le botaniste Christian Carl Löwe, la Société des naturalistes de Halle en 1779. À partir de 1783, il est conservateur au Kunst- und Naturalienkammer de Halle, fondé par August Hermann Francke au début du siècle. En 1787, il est engagé comme directeur comptable des jardins des Institutions de Francke de Halle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fortgeseßte Beitrage zur Geschichte exotischer Papilions, in Der Naturforscher 23, pp. 49–53
 Neue Insekten, éd. Hallische naturforschende Gesellschaft, vol. I, pp. 217–332</t>
